--- a/Data Sets/Wolf_Hormones.xlsx
+++ b/Data Sets/Wolf_Hormones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Personal Learning\MSC Data Science 2023\Master's Class\Assignments\Repeat assignment 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remmy/Documents/Projects/Data-Science/Data Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BC0B2DB5-CCB7-460B-B0DA-6EB4DA58A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wolf_hormone_data" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,20 @@
     <sheet name="Test_Data1" sheetId="3" r:id="rId3"/>
     <sheet name="Test_Data2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="25">
   <si>
     <t>Individual</t>
   </si>
@@ -99,18 +106,12 @@
   <si>
     <t xml:space="preserve"> Concentration of progesterone in hair in pg/mg (Females only).</t>
   </si>
-  <si>
-    <t>Question 1: Predict the level of testosterone hormone among the above wolves.</t>
-  </si>
-  <si>
-    <t>Question 2: Predict the level of progesterone hormone among the above female wolves.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,11 +266,20 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -570,21 +580,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -627,16 +637,33 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="60">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -665,11 +692,29 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -992,16 +1037,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection sqref="A1:G179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1047,7 +1092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1070,7 +1115,7 @@
         <v>14.37622</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1093,7 +1138,7 @@
         <v>21.659020000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1116,7 +1161,7 @@
         <v>13.42507</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1139,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1162,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1185,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1208,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1231,7 +1276,7 @@
         <v>19.912694999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1254,7 +1299,7 @@
         <v>34.598059999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1277,7 +1322,7 @@
         <v>25.885475</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1300,7 +1345,7 @@
         <v>15.868819999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1323,7 +1368,7 @@
         <v>33.083615000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1346,7 +1391,7 @@
         <v>24.828755000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1369,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1392,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1415,7 +1460,7 @@
         <v>25.00037</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1438,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1461,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1484,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1507,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1530,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1553,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1576,7 +1621,7 @@
         <v>21.500325</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1599,7 +1644,7 @@
         <v>31.827400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1622,7 +1667,7 @@
         <v>34.076500000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1645,7 +1690,7 @@
         <v>20.216059999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1668,7 +1713,7 @@
         <v>18.291149999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1691,7 +1736,7 @@
         <v>21.297345</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1714,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1737,7 +1782,7 @@
         <v>36.407964999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1760,7 +1805,7 @@
         <v>40.927925000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1783,7 +1828,7 @@
         <v>45.913600000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1806,7 +1851,7 @@
         <v>47.267395</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1829,7 +1874,7 @@
         <v>40.938380000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1852,7 +1897,7 @@
         <v>26.655830000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1875,7 +1920,7 @@
         <v>23.904125000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1898,7 +1943,7 @@
         <v>26.36326</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1921,7 +1966,7 @@
         <v>34.649655000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1944,7 +1989,7 @@
         <v>19.618849999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1967,7 +2012,7 @@
         <v>28.124970000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1990,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2013,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2036,7 +2081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2059,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2082,7 +2127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2105,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2128,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2151,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2174,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2197,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2220,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2243,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2266,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2289,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2312,7 +2357,7 @@
         <v>24.465209999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2335,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2358,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2381,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2404,7 +2449,7 @@
         <v>31.409285000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2427,7 +2472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2450,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2473,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2496,7 +2541,7 @@
         <v>21.014720000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2519,7 +2564,7 @@
         <v>28.06955</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2542,7 +2587,7 @@
         <v>27.907965000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2565,7 +2610,7 @@
         <v>27.379180000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2588,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2611,7 +2656,7 @@
         <v>53.281910000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2634,7 +2679,7 @@
         <v>48.534320000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2657,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2680,7 +2725,7 @@
         <v>37.656955000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2703,7 +2748,7 @@
         <v>31.904665000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2726,7 +2771,7 @@
         <v>28.876370000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2749,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2772,7 +2817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2795,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2818,7 +2863,7 @@
         <v>22.873925</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2841,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -2864,7 +2909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -2887,7 +2932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2910,7 +2955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2933,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -2956,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -2979,7 +3024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3002,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3025,7 +3070,7 @@
         <v>16.774750000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3048,7 +3093,7 @@
         <v>19.498915</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3071,7 +3116,7 @@
         <v>22.560105</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3094,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -3117,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3140,7 +3185,7 @@
         <v>34.815660000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3163,7 +3208,7 @@
         <v>16.676234999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3186,7 +3231,7 @@
         <v>13.193275</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3209,7 +3254,7 @@
         <v>13.623715000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3232,7 +3277,7 @@
         <v>18.520820000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3255,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3278,7 +3323,7 @@
         <v>25.209810000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -3301,7 +3346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3324,7 +3369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -3347,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3370,7 +3415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -3393,7 +3438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -3416,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -3439,7 +3484,7 @@
         <v>13.173215000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -3462,7 +3507,7 @@
         <v>26.32807</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -3485,7 +3530,7 @@
         <v>16.401005000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -3508,7 +3553,7 @@
         <v>17.560234999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -3531,7 +3576,7 @@
         <v>29.295079999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>21.517835000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -3577,7 +3622,7 @@
         <v>28.490725000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -3600,7 +3645,7 @@
         <v>30.986070000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -3623,7 +3668,7 @@
         <v>28.627490000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -3646,7 +3691,7 @@
         <v>25.665835000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -3669,7 +3714,7 @@
         <v>19.288115000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -3692,7 +3737,7 @@
         <v>30.009250000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -3715,7 +3760,7 @@
         <v>12.759095</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -3738,7 +3783,7 @@
         <v>22.722455</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -3761,7 +3806,7 @@
         <v>23.244015000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -3784,7 +3829,7 @@
         <v>18.359235000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -3807,7 +3852,7 @@
         <v>18.880965</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -3830,7 +3875,7 @@
         <v>21.06504</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -3853,7 +3898,7 @@
         <v>16.153994999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -3876,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -3899,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -3922,7 +3967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -3945,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -3968,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -3991,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -4014,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -4037,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -4060,7 +4105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -4083,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -4106,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -4129,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -4152,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -4175,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -4198,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -4221,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -4244,7 +4289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -4267,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -4290,7 +4335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -4313,7 +4358,7 @@
         <v>26.734285</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -4336,7 +4381,7 @@
         <v>28.106525000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -4359,7 +4404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -4382,7 +4427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -4405,7 +4450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4428,7 +4473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -4451,7 +4496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -4474,7 +4519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -4497,7 +4542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -4520,7 +4565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -4543,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4566,7 +4611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -4589,7 +4634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4612,7 +4657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -4635,7 +4680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -4658,7 +4703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -4681,7 +4726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -4704,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -4727,7 +4772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -4750,7 +4795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -4773,7 +4818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -4796,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -4819,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -4842,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -4865,7 +4910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -4888,7 +4933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -4911,7 +4956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -4934,7 +4979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -4957,7 +5002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -4980,7 +5025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -5003,7 +5048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -5026,7 +5071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -5049,7 +5094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -5072,7 +5117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -5095,7 +5140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -5120,6 +5165,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5129,22 +5175,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -5157,7 +5203,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -5168,7 +5214,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -5179,7 +5225,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -5192,7 +5238,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5251,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -5218,7 +5264,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5231,7 +5277,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -5252,15 +5298,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>179</v>
       </c>
@@ -5298,7 +5344,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>180</v>
       </c>
@@ -5316,7 +5362,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>181</v>
       </c>
@@ -5334,7 +5380,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>182</v>
       </c>
@@ -5352,7 +5398,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>183</v>
       </c>
@@ -5370,7 +5416,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>184</v>
       </c>
@@ -5388,7 +5434,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>185</v>
       </c>
@@ -5406,7 +5452,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>186</v>
       </c>
@@ -5424,7 +5470,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>187</v>
       </c>
@@ -5442,7 +5488,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>188</v>
       </c>
@@ -5460,7 +5506,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>189</v>
       </c>
@@ -5478,7 +5524,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>190</v>
       </c>
@@ -5496,7 +5542,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>191</v>
       </c>
@@ -5514,7 +5560,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>192</v>
       </c>
@@ -5532,7 +5578,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>193</v>
       </c>
@@ -5550,7 +5596,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>194</v>
       </c>
@@ -5568,7 +5614,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>195</v>
       </c>
@@ -5586,7 +5632,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>196</v>
       </c>
@@ -5604,27 +5650,23 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +5689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>197</v>
       </c>
@@ -5668,7 +5710,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>198</v>
       </c>
@@ -5689,7 +5731,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>199</v>
       </c>
@@ -5710,7 +5752,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>200</v>
       </c>
@@ -5731,7 +5773,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>201</v>
       </c>
@@ -5752,7 +5794,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>202</v>
       </c>
@@ -5773,7 +5815,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>203</v>
       </c>
@@ -5794,7 +5836,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>204</v>
       </c>
@@ -5815,7 +5857,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>205</v>
       </c>
@@ -5836,7 +5878,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>206</v>
       </c>
@@ -5857,7 +5899,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>207</v>
       </c>
@@ -5878,7 +5920,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>208</v>
       </c>
@@ -5899,12 +5941,8 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>